--- a/2022/Symphony/January/03.01.2022/MC Bank Statement January-2022.xlsx
+++ b/2022/Symphony/January/03.01.2022/MC Bank Statement January-2022.xlsx
@@ -2990,6 +2990,12 @@
     <xf numFmtId="1" fontId="5" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3136,12 +3142,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3809,33 +3809,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="310"/>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
+      <c r="A1" s="312"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="311"/>
-      <c r="B2" s="308" t="s">
+      <c r="A2" s="313"/>
+      <c r="B2" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="311"/>
-      <c r="B3" s="309" t="s">
+      <c r="A3" s="313"/>
+      <c r="B3" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="311"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3853,7 +3853,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="311"/>
+      <c r="A5" s="313"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="311"/>
+      <c r="A6" s="313"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3883,7 +3883,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="311"/>
+      <c r="A7" s="313"/>
       <c r="B7" s="26" t="s">
         <v>61</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="311"/>
+      <c r="A8" s="313"/>
       <c r="B8" s="26" t="s">
         <v>62</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="311"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="26" t="s">
         <v>64</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="311"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="26" t="s">
         <v>65</v>
       </c>
@@ -3959,7 +3959,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="311"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="26" t="s">
         <v>66</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="311"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="26" t="s">
         <v>67</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="311"/>
+      <c r="A13" s="313"/>
       <c r="B13" s="26" t="s">
         <v>68</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="311"/>
+      <c r="A14" s="313"/>
       <c r="B14" s="26" t="s">
         <v>69</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="311"/>
+      <c r="A15" s="313"/>
       <c r="B15" s="26" t="s">
         <v>70</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="311"/>
+      <c r="A16" s="313"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4067,7 +4067,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="311"/>
+      <c r="A17" s="313"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4080,7 +4080,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="311"/>
+      <c r="A18" s="313"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4093,7 +4093,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="311"/>
+      <c r="A19" s="313"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4106,7 +4106,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="311"/>
+      <c r="A20" s="313"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4119,7 +4119,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="311"/>
+      <c r="A21" s="313"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4132,7 +4132,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="311"/>
+      <c r="A22" s="313"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4145,7 +4145,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="311"/>
+      <c r="A23" s="313"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4158,7 +4158,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="311"/>
+      <c r="A24" s="313"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4171,7 +4171,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="311"/>
+      <c r="A25" s="313"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4184,7 +4184,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="311"/>
+      <c r="A26" s="313"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4197,7 +4197,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="311"/>
+      <c r="A27" s="313"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4210,7 +4210,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="311"/>
+      <c r="A28" s="313"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4223,7 +4223,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="311"/>
+      <c r="A29" s="313"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4236,7 +4236,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="311"/>
+      <c r="A30" s="313"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4249,7 +4249,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="311"/>
+      <c r="A31" s="313"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4262,7 +4262,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="311"/>
+      <c r="A32" s="313"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4275,7 +4275,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="311"/>
+      <c r="A33" s="313"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4288,7 +4288,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="311"/>
+      <c r="A34" s="313"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4301,7 +4301,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="311"/>
+      <c r="A35" s="313"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4314,7 +4314,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="311"/>
+      <c r="A36" s="313"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4327,7 +4327,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="311"/>
+      <c r="A37" s="313"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4340,7 +4340,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="311"/>
+      <c r="A38" s="313"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4353,7 +4353,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="311"/>
+      <c r="A39" s="313"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4366,7 +4366,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="311"/>
+      <c r="A40" s="313"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4379,7 +4379,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="311"/>
+      <c r="A41" s="313"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4392,7 +4392,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="311"/>
+      <c r="A42" s="313"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4405,7 +4405,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="311"/>
+      <c r="A43" s="313"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4418,7 +4418,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="311"/>
+      <c r="A44" s="313"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4431,7 +4431,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="311"/>
+      <c r="A45" s="313"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4444,7 +4444,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="311"/>
+      <c r="A46" s="313"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4457,7 +4457,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="311"/>
+      <c r="A47" s="313"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4470,7 +4470,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="311"/>
+      <c r="A48" s="313"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4483,7 +4483,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="311"/>
+      <c r="A49" s="313"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4496,7 +4496,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="311"/>
+      <c r="A50" s="313"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4509,7 +4509,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="311"/>
+      <c r="A51" s="313"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4522,7 +4522,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="311"/>
+      <c r="A52" s="313"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4535,7 +4535,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="311"/>
+      <c r="A53" s="313"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4548,7 +4548,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="311"/>
+      <c r="A54" s="313"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4561,7 +4561,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="311"/>
+      <c r="A55" s="313"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4573,7 +4573,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="311"/>
+      <c r="A56" s="313"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4585,7 +4585,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="311"/>
+      <c r="A57" s="313"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4597,7 +4597,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="311"/>
+      <c r="A58" s="313"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4609,7 +4609,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="311"/>
+      <c r="A59" s="313"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4621,7 +4621,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="311"/>
+      <c r="A60" s="313"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4633,7 +4633,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="311"/>
+      <c r="A61" s="313"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4645,7 +4645,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="311"/>
+      <c r="A62" s="313"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4657,7 +4657,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="311"/>
+      <c r="A63" s="313"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4669,7 +4669,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="311"/>
+      <c r="A64" s="313"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4681,7 +4681,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="311"/>
+      <c r="A65" s="313"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4693,7 +4693,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="311"/>
+      <c r="A66" s="313"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4705,7 +4705,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="311"/>
+      <c r="A67" s="313"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4717,7 +4717,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="311"/>
+      <c r="A68" s="313"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4729,7 +4729,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="311"/>
+      <c r="A69" s="313"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4741,7 +4741,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="311"/>
+      <c r="A70" s="313"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4753,7 +4753,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="311"/>
+      <c r="A71" s="313"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4765,7 +4765,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="311"/>
+      <c r="A72" s="313"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4777,7 +4777,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="311"/>
+      <c r="A73" s="313"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4789,7 +4789,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="311"/>
+      <c r="A74" s="313"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4801,7 +4801,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="311"/>
+      <c r="A75" s="313"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4813,7 +4813,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="311"/>
+      <c r="A76" s="313"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4825,7 +4825,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="311"/>
+      <c r="A77" s="313"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4837,7 +4837,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="311"/>
+      <c r="A78" s="313"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4849,7 +4849,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="311"/>
+      <c r="A79" s="313"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4861,7 +4861,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="311"/>
+      <c r="A80" s="313"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4873,7 +4873,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="311"/>
+      <c r="A81" s="313"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4885,7 +4885,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="311"/>
+      <c r="A82" s="313"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4897,7 +4897,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="311"/>
+      <c r="A83" s="313"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4954,33 +4954,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="310"/>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
+      <c r="A1" s="312"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="311"/>
-      <c r="B2" s="308" t="s">
+      <c r="A2" s="313"/>
+      <c r="B2" s="310" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="311"/>
-      <c r="B3" s="309" t="s">
+      <c r="A3" s="313"/>
+      <c r="B3" s="311" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="311"/>
+      <c r="A4" s="313"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="311"/>
+      <c r="A5" s="313"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="311"/>
+      <c r="A6" s="313"/>
       <c r="B6" s="26"/>
       <c r="C6" s="271"/>
       <c r="D6" s="271"/>
@@ -5028,7 +5028,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="311"/>
+      <c r="A7" s="313"/>
       <c r="B7" s="26" t="s">
         <v>213</v>
       </c>
@@ -5046,7 +5046,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="311"/>
+      <c r="A8" s="313"/>
       <c r="B8" s="26" t="s">
         <v>222</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="311"/>
+      <c r="A9" s="313"/>
       <c r="B9" s="26" t="s">
         <v>224</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="311"/>
+      <c r="A10" s="313"/>
       <c r="B10" s="26"/>
       <c r="C10" s="274"/>
       <c r="D10" s="274"/>
@@ -5094,7 +5094,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="311"/>
+      <c r="A11" s="313"/>
       <c r="B11" s="26"/>
       <c r="C11" s="271"/>
       <c r="D11" s="271"/>
@@ -5106,7 +5106,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="311"/>
+      <c r="A12" s="313"/>
       <c r="B12" s="26"/>
       <c r="C12" s="271"/>
       <c r="D12" s="271"/>
@@ -5118,7 +5118,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="311"/>
+      <c r="A13" s="313"/>
       <c r="B13" s="26"/>
       <c r="C13" s="271"/>
       <c r="D13" s="271"/>
@@ -5130,7 +5130,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="311"/>
+      <c r="A14" s="313"/>
       <c r="B14" s="26"/>
       <c r="C14" s="271"/>
       <c r="D14" s="271"/>
@@ -5142,7 +5142,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="311"/>
+      <c r="A15" s="313"/>
       <c r="B15" s="26"/>
       <c r="C15" s="271"/>
       <c r="D15" s="271"/>
@@ -5154,7 +5154,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="311"/>
+      <c r="A16" s="313"/>
       <c r="B16" s="26"/>
       <c r="C16" s="271"/>
       <c r="D16" s="271"/>
@@ -5166,7 +5166,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="311"/>
+      <c r="A17" s="313"/>
       <c r="B17" s="26"/>
       <c r="C17" s="271"/>
       <c r="D17" s="271"/>
@@ -5178,7 +5178,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="311"/>
+      <c r="A18" s="313"/>
       <c r="B18" s="26"/>
       <c r="C18" s="271"/>
       <c r="D18" s="271"/>
@@ -5190,7 +5190,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="311"/>
+      <c r="A19" s="313"/>
       <c r="B19" s="26"/>
       <c r="C19" s="271"/>
       <c r="D19" s="274"/>
@@ -5202,7 +5202,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="311"/>
+      <c r="A20" s="313"/>
       <c r="B20" s="26"/>
       <c r="C20" s="271"/>
       <c r="D20" s="271"/>
@@ -5214,7 +5214,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="311"/>
+      <c r="A21" s="313"/>
       <c r="B21" s="26"/>
       <c r="C21" s="271"/>
       <c r="D21" s="271"/>
@@ -5226,7 +5226,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="311"/>
+      <c r="A22" s="313"/>
       <c r="B22" s="26"/>
       <c r="C22" s="271"/>
       <c r="D22" s="271"/>
@@ -5238,7 +5238,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="311"/>
+      <c r="A23" s="313"/>
       <c r="B23" s="26"/>
       <c r="C23" s="271"/>
       <c r="D23" s="271"/>
@@ -5250,7 +5250,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="311"/>
+      <c r="A24" s="313"/>
       <c r="B24" s="26"/>
       <c r="C24" s="271"/>
       <c r="D24" s="271"/>
@@ -5262,7 +5262,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="311"/>
+      <c r="A25" s="313"/>
       <c r="B25" s="26"/>
       <c r="C25" s="271"/>
       <c r="D25" s="271"/>
@@ -5274,7 +5274,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="311"/>
+      <c r="A26" s="313"/>
       <c r="B26" s="26"/>
       <c r="C26" s="271"/>
       <c r="D26" s="271"/>
@@ -5286,7 +5286,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="311"/>
+      <c r="A27" s="313"/>
       <c r="B27" s="26"/>
       <c r="C27" s="271"/>
       <c r="D27" s="271"/>
@@ -5298,7 +5298,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="311"/>
+      <c r="A28" s="313"/>
       <c r="B28" s="26"/>
       <c r="C28" s="271"/>
       <c r="D28" s="271"/>
@@ -5310,7 +5310,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="311"/>
+      <c r="A29" s="313"/>
       <c r="B29" s="26"/>
       <c r="C29" s="271"/>
       <c r="D29" s="271"/>
@@ -5322,7 +5322,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="311"/>
+      <c r="A30" s="313"/>
       <c r="B30" s="26"/>
       <c r="C30" s="271"/>
       <c r="D30" s="271"/>
@@ -5334,7 +5334,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="311"/>
+      <c r="A31" s="313"/>
       <c r="B31" s="26"/>
       <c r="C31" s="271"/>
       <c r="D31" s="271"/>
@@ -5346,7 +5346,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="311"/>
+      <c r="A32" s="313"/>
       <c r="B32" s="26"/>
       <c r="C32" s="271"/>
       <c r="D32" s="271"/>
@@ -5358,7 +5358,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="311"/>
+      <c r="A33" s="313"/>
       <c r="B33" s="26"/>
       <c r="C33" s="271"/>
       <c r="D33" s="274"/>
@@ -5370,7 +5370,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="311"/>
+      <c r="A34" s="313"/>
       <c r="B34" s="26"/>
       <c r="C34" s="271"/>
       <c r="D34" s="271"/>
@@ -5382,7 +5382,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="311"/>
+      <c r="A35" s="313"/>
       <c r="B35" s="26"/>
       <c r="C35" s="271"/>
       <c r="D35" s="271"/>
@@ -5394,7 +5394,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="311"/>
+      <c r="A36" s="313"/>
       <c r="B36" s="26"/>
       <c r="C36" s="271"/>
       <c r="D36" s="271"/>
@@ -5406,7 +5406,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="311"/>
+      <c r="A37" s="313"/>
       <c r="B37" s="26"/>
       <c r="C37" s="271"/>
       <c r="D37" s="271"/>
@@ -5418,7 +5418,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="311"/>
+      <c r="A38" s="313"/>
       <c r="B38" s="26"/>
       <c r="C38" s="271"/>
       <c r="D38" s="271"/>
@@ -5430,7 +5430,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="311"/>
+      <c r="A39" s="313"/>
       <c r="B39" s="26"/>
       <c r="C39" s="271"/>
       <c r="D39" s="271"/>
@@ -5442,7 +5442,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="311"/>
+      <c r="A40" s="313"/>
       <c r="B40" s="26"/>
       <c r="C40" s="271"/>
       <c r="D40" s="271"/>
@@ -5454,7 +5454,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="311"/>
+      <c r="A41" s="313"/>
       <c r="B41" s="26"/>
       <c r="C41" s="271"/>
       <c r="D41" s="271"/>
@@ -5466,7 +5466,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="311"/>
+      <c r="A42" s="313"/>
       <c r="B42" s="26"/>
       <c r="C42" s="271"/>
       <c r="D42" s="271"/>
@@ -5478,7 +5478,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="311"/>
+      <c r="A43" s="313"/>
       <c r="B43" s="26"/>
       <c r="C43" s="271"/>
       <c r="D43" s="271"/>
@@ -5490,7 +5490,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="311"/>
+      <c r="A44" s="313"/>
       <c r="B44" s="26"/>
       <c r="C44" s="271"/>
       <c r="D44" s="271"/>
@@ -5502,7 +5502,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="311"/>
+      <c r="A45" s="313"/>
       <c r="B45" s="26"/>
       <c r="C45" s="271"/>
       <c r="D45" s="271"/>
@@ -5514,7 +5514,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="311"/>
+      <c r="A46" s="313"/>
       <c r="B46" s="26"/>
       <c r="C46" s="271"/>
       <c r="D46" s="271"/>
@@ -5526,7 +5526,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="311"/>
+      <c r="A47" s="313"/>
       <c r="B47" s="26"/>
       <c r="C47" s="271"/>
       <c r="D47" s="271"/>
@@ -5538,7 +5538,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="311"/>
+      <c r="A48" s="313"/>
       <c r="B48" s="26"/>
       <c r="C48" s="271"/>
       <c r="D48" s="271"/>
@@ -5550,7 +5550,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="311"/>
+      <c r="A49" s="313"/>
       <c r="B49" s="26"/>
       <c r="C49" s="271"/>
       <c r="D49" s="271"/>
@@ -5562,7 +5562,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="311"/>
+      <c r="A50" s="313"/>
       <c r="B50" s="26"/>
       <c r="C50" s="271"/>
       <c r="D50" s="271"/>
@@ -5574,7 +5574,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="311"/>
+      <c r="A51" s="313"/>
       <c r="B51" s="26"/>
       <c r="C51" s="271"/>
       <c r="D51" s="271"/>
@@ -5586,7 +5586,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="311"/>
+      <c r="A52" s="313"/>
       <c r="B52" s="26"/>
       <c r="C52" s="271"/>
       <c r="D52" s="271"/>
@@ -5598,7 +5598,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="311"/>
+      <c r="A53" s="313"/>
       <c r="B53" s="26"/>
       <c r="C53" s="271"/>
       <c r="D53" s="271"/>
@@ -5610,7 +5610,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="311"/>
+      <c r="A54" s="313"/>
       <c r="B54" s="26"/>
       <c r="C54" s="271"/>
       <c r="D54" s="271"/>
@@ -5622,7 +5622,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="311"/>
+      <c r="A55" s="313"/>
       <c r="B55" s="26"/>
       <c r="C55" s="271"/>
       <c r="D55" s="271"/>
@@ -5633,7 +5633,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="311"/>
+      <c r="A56" s="313"/>
       <c r="B56" s="26"/>
       <c r="C56" s="271"/>
       <c r="D56" s="271"/>
@@ -5644,7 +5644,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="311"/>
+      <c r="A57" s="313"/>
       <c r="B57" s="26"/>
       <c r="C57" s="271"/>
       <c r="D57" s="271"/>
@@ -5655,7 +5655,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="311"/>
+      <c r="A58" s="313"/>
       <c r="B58" s="26"/>
       <c r="C58" s="271"/>
       <c r="D58" s="271"/>
@@ -5666,7 +5666,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="311"/>
+      <c r="A59" s="313"/>
       <c r="B59" s="26"/>
       <c r="C59" s="271"/>
       <c r="D59" s="271"/>
@@ -5677,7 +5677,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="311"/>
+      <c r="A60" s="313"/>
       <c r="B60" s="26"/>
       <c r="C60" s="271"/>
       <c r="D60" s="271"/>
@@ -5688,7 +5688,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="311"/>
+      <c r="A61" s="313"/>
       <c r="B61" s="26"/>
       <c r="C61" s="271"/>
       <c r="D61" s="271"/>
@@ -5699,7 +5699,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="311"/>
+      <c r="A62" s="313"/>
       <c r="B62" s="26"/>
       <c r="C62" s="271"/>
       <c r="D62" s="271"/>
@@ -5710,7 +5710,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="311"/>
+      <c r="A63" s="313"/>
       <c r="B63" s="26"/>
       <c r="C63" s="271"/>
       <c r="D63" s="271"/>
@@ -5721,7 +5721,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="311"/>
+      <c r="A64" s="313"/>
       <c r="B64" s="26"/>
       <c r="C64" s="271"/>
       <c r="D64" s="271"/>
@@ -5732,7 +5732,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="311"/>
+      <c r="A65" s="313"/>
       <c r="B65" s="26"/>
       <c r="C65" s="271"/>
       <c r="D65" s="271"/>
@@ -5743,7 +5743,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="311"/>
+      <c r="A66" s="313"/>
       <c r="B66" s="26"/>
       <c r="C66" s="271"/>
       <c r="D66" s="271"/>
@@ -5754,7 +5754,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="311"/>
+      <c r="A67" s="313"/>
       <c r="B67" s="26"/>
       <c r="C67" s="271"/>
       <c r="D67" s="271"/>
@@ -5765,7 +5765,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="311"/>
+      <c r="A68" s="313"/>
       <c r="B68" s="26"/>
       <c r="C68" s="271"/>
       <c r="D68" s="271"/>
@@ -5776,7 +5776,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="311"/>
+      <c r="A69" s="313"/>
       <c r="B69" s="26"/>
       <c r="C69" s="271"/>
       <c r="D69" s="271"/>
@@ -5787,7 +5787,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="311"/>
+      <c r="A70" s="313"/>
       <c r="B70" s="26"/>
       <c r="C70" s="271"/>
       <c r="D70" s="271"/>
@@ -5798,7 +5798,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="311"/>
+      <c r="A71" s="313"/>
       <c r="B71" s="26"/>
       <c r="C71" s="271"/>
       <c r="D71" s="271"/>
@@ -5809,7 +5809,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="311"/>
+      <c r="A72" s="313"/>
       <c r="B72" s="26"/>
       <c r="C72" s="271"/>
       <c r="D72" s="271"/>
@@ -5820,7 +5820,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="311"/>
+      <c r="A73" s="313"/>
       <c r="B73" s="26"/>
       <c r="C73" s="271"/>
       <c r="D73" s="271"/>
@@ -5831,7 +5831,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="311"/>
+      <c r="A74" s="313"/>
       <c r="B74" s="26"/>
       <c r="C74" s="271"/>
       <c r="D74" s="271"/>
@@ -5842,7 +5842,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="311"/>
+      <c r="A75" s="313"/>
       <c r="B75" s="26"/>
       <c r="C75" s="271"/>
       <c r="D75" s="271"/>
@@ -5853,7 +5853,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="311"/>
+      <c r="A76" s="313"/>
       <c r="B76" s="26"/>
       <c r="C76" s="271"/>
       <c r="D76" s="271"/>
@@ -5864,7 +5864,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="311"/>
+      <c r="A77" s="313"/>
       <c r="B77" s="26"/>
       <c r="C77" s="271"/>
       <c r="D77" s="271"/>
@@ -5875,7 +5875,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="311"/>
+      <c r="A78" s="313"/>
       <c r="B78" s="26"/>
       <c r="C78" s="271"/>
       <c r="D78" s="271"/>
@@ -5886,7 +5886,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="311"/>
+      <c r="A79" s="313"/>
       <c r="B79" s="26"/>
       <c r="C79" s="271"/>
       <c r="D79" s="271"/>
@@ -5898,7 +5898,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="311"/>
+      <c r="A80" s="313"/>
       <c r="B80" s="26"/>
       <c r="C80" s="271"/>
       <c r="D80" s="271"/>
@@ -5910,7 +5910,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="311"/>
+      <c r="A81" s="313"/>
       <c r="B81" s="26"/>
       <c r="C81" s="271"/>
       <c r="D81" s="271"/>
@@ -5922,7 +5922,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="311"/>
+      <c r="A82" s="313"/>
       <c r="B82" s="26"/>
       <c r="C82" s="271"/>
       <c r="D82" s="271"/>
@@ -5934,7 +5934,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="311"/>
+      <c r="A83" s="313"/>
       <c r="B83" s="31"/>
       <c r="C83" s="273">
         <f>SUM(C5:C72)</f>
@@ -5987,67 +5987,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316"/>
-      <c r="M1" s="316"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="316"/>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="317" t="s">
+      <c r="A2" s="319" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="317"/>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="317"/>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
-      <c r="Q2" s="317"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="319"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="320" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="319"/>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="319"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="319"/>
-      <c r="J3" s="319"/>
-      <c r="K3" s="319"/>
-      <c r="L3" s="319"/>
-      <c r="M3" s="319"/>
-      <c r="N3" s="319"/>
-      <c r="O3" s="319"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="320"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="321"/>
+      <c r="O3" s="321"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="322"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6056,52 +6056,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="321" t="s">
+      <c r="A4" s="323" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="325" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="312" t="s">
+      <c r="C4" s="314" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="312" t="s">
+      <c r="D4" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="312" t="s">
+      <c r="F4" s="314" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="312" t="s">
+      <c r="G4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="312" t="s">
+      <c r="H4" s="314" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="312" t="s">
+      <c r="I4" s="314" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="312" t="s">
+      <c r="J4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="312" t="s">
+      <c r="K4" s="314" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="312" t="s">
+      <c r="L4" s="314" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="312" t="s">
+      <c r="M4" s="314" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="312" t="s">
+      <c r="N4" s="314" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="314" t="s">
+      <c r="O4" s="316" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="325" t="s">
+      <c r="P4" s="327" t="s">
         <v>73</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6114,22 +6114,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="322"/>
-      <c r="B5" s="324"/>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="313"/>
-      <c r="F5" s="313"/>
-      <c r="G5" s="313"/>
-      <c r="H5" s="313"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="313"/>
-      <c r="K5" s="313"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="313"/>
-      <c r="N5" s="313"/>
-      <c r="O5" s="315"/>
-      <c r="P5" s="326"/>
+      <c r="A5" s="324"/>
+      <c r="B5" s="326"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="315"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="315"/>
+      <c r="N5" s="315"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="328"/>
       <c r="Q5" s="136" t="s">
         <v>48</v>
       </c>
@@ -9052,11 +9052,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9071,6 +9066,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9112,14 +9112,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="333"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="335"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="152"/>
@@ -9213,14 +9213,14 @@
       <c r="CS1" s="147"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="336" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="336"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="338"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="152"/>
@@ -9314,14 +9314,14 @@
       <c r="CS2" s="147"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="339" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="338"/>
-      <c r="C3" s="338"/>
-      <c r="D3" s="338"/>
-      <c r="E3" s="338"/>
-      <c r="F3" s="339"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="341"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="152"/>
@@ -12630,12 +12630,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="142"/>
-      <c r="B35" s="329" t="s">
+      <c r="B35" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="329"/>
-      <c r="D35" s="329"/>
-      <c r="E35" s="329"/>
+      <c r="C35" s="331"/>
+      <c r="D35" s="331"/>
+      <c r="E35" s="331"/>
       <c r="F35" s="143"/>
       <c r="G35" s="148"/>
       <c r="H35" s="148"/>
@@ -13508,10 +13508,10 @@
       <c r="D43" s="218"/>
       <c r="E43" s="185"/>
       <c r="F43" s="143"/>
-      <c r="G43" s="330"/>
-      <c r="H43" s="330"/>
-      <c r="I43" s="330"/>
-      <c r="J43" s="330"/>
+      <c r="G43" s="332"/>
+      <c r="H43" s="332"/>
+      <c r="I43" s="332"/>
+      <c r="J43" s="332"/>
       <c r="K43" s="67"/>
       <c r="L43" s="152"/>
       <c r="M43" s="67"/>
@@ -22017,11 +22017,11 @@
       <c r="CS118" s="147"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="327" t="s">
+      <c r="A119" s="329" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="328"/>
-      <c r="C119" s="340"/>
+      <c r="B119" s="330"/>
+      <c r="C119" s="342"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
         <v>2504311</v>
@@ -22224,11 +22224,11 @@
       <c r="CS120" s="147"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="327" t="s">
+      <c r="A121" s="329" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="328"/>
-      <c r="C121" s="328"/>
+      <c r="B121" s="330"/>
+      <c r="C121" s="330"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
         <v>2504311</v>
@@ -33464,7 +33464,7 @@
   <dimension ref="A1:Y219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="G5:H5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33481,35 +33481,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="343" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="343"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="345"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="352" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="352"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="354"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="344" t="s">
+      <c r="A3" s="346" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="346"/>
+      <c r="B3" s="347"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="348"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33532,15 +33532,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="355" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="354"/>
+      <c r="B4" s="356"/>
       <c r="C4" s="289"/>
-      <c r="D4" s="355" t="s">
+      <c r="D4" s="357" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="356"/>
+      <c r="E4" s="358"/>
       <c r="F4" s="5"/>
       <c r="G4" s="48"/>
       <c r="H4" s="7"/>
@@ -33574,7 +33574,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="259">
-        <v>7670393.4786571432</v>
+        <v>6903478.6043952378</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="282"/>
@@ -33602,7 +33602,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="263">
-        <v>40395.478657142841</v>
+        <v>48062.245895238091</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="41" t="s">
@@ -33764,7 +33764,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="259">
-        <v>151550</v>
+        <v>153780</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="249"/>
@@ -33793,7 +33793,7 @@
       </c>
       <c r="B12" s="264">
         <f>B6+B7+B8-B10-B11</f>
-        <v>33406.478657142841</v>
+        <v>41073.245895238091</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="41" t="s">
@@ -33889,7 +33889,7 @@
       </c>
       <c r="B15" s="265">
         <f>B5+B6+B7+B8-B10-B11+B14</f>
-        <v>9433406.4786571432</v>
+        <v>9441073.2458952367</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
@@ -33897,12 +33897,12 @@
       </c>
       <c r="E15" s="262">
         <f>E5+E6+E7+E10+E11+E12+E13</f>
-        <v>9433406.4786571432</v>
+        <v>8668721.6043952368</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="119">
         <f>B15-E15</f>
-        <v>0</v>
+        <v>772351.64149999991</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -33953,13 +33953,13 @@
       <c r="Y16" s="7"/>
     </row>
     <row r="17" spans="1:25" ht="22.5">
-      <c r="A17" s="347" t="s">
+      <c r="A17" s="349" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="348"/>
-      <c r="C17" s="348"/>
-      <c r="D17" s="348"/>
-      <c r="E17" s="349"/>
+      <c r="B17" s="350"/>
+      <c r="C17" s="350"/>
+      <c r="D17" s="350"/>
+      <c r="E17" s="351"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -34058,10 +34058,10 @@
         <v>19600</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="357" t="s">
+      <c r="D20" s="308" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="358">
+      <c r="E20" s="309">
         <v>340000</v>
       </c>
       <c r="H20" s="7"/>
